--- a/XLSX finales/Resumen_AL_Jugadores.xlsx
+++ b/XLSX finales/Resumen_AL_Jugadores.xlsx
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Proyectos\Proyecto Gronestats\GroneStats\XLSX finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C5CF1-1D26-430C-A6B9-E4EA6514D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF783F76-AD79-41D3-95F1-D611AAEDD9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AV$100</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="112">
-  <si>
-    <t>Nombre</t>
-  </si>
   <si>
     <t>Nombre Corto</t>
   </si>
@@ -357,12 +369,15 @@
   <si>
     <t>V. Guzmán</t>
   </si>
+  <si>
+    <t>Jugador</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +390,63 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -411,9 +476,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -721,175 +807,211 @@
   <dimension ref="A1:AV100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="D2">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -991,30 +1113,30 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="s">
         <v>52</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
       </c>
       <c r="D3">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -1116,30 +1238,30 @@
         <v>0</v>
       </c>
       <c r="AN3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" t="s">
         <v>52</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -1241,30 +1363,30 @@
         <v>0</v>
       </c>
       <c r="AN4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" t="s">
         <v>52</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>35</v>
@@ -1366,30 +1488,30 @@
         <v>0</v>
       </c>
       <c r="AN5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" t="s">
         <v>52</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -1491,30 +1613,30 @@
         <v>0</v>
       </c>
       <c r="AN6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" t="s">
         <v>52</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>31</v>
@@ -1616,30 +1738,30 @@
         <v>0</v>
       </c>
       <c r="AN7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO7" t="s">
         <v>52</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>36</v>
@@ -1741,30 +1863,30 @@
         <v>0</v>
       </c>
       <c r="AN8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8" t="s">
         <v>52</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -1866,30 +1988,30 @@
         <v>0</v>
       </c>
       <c r="AN9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" t="s">
         <v>52</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1991,30 +2113,30 @@
         <v>0</v>
       </c>
       <c r="AN10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" t="s">
         <v>52</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -2116,30 +2238,30 @@
         <v>0</v>
       </c>
       <c r="AN11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO11" t="s">
         <v>52</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>26</v>
@@ -2241,30 +2363,30 @@
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -2366,30 +2488,30 @@
         <v>0</v>
       </c>
       <c r="AN13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO13" t="s">
         <v>52</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -2491,30 +2613,30 @@
         <v>1</v>
       </c>
       <c r="AN14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO14" t="s">
         <v>52</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2616,30 +2738,30 @@
         <v>0</v>
       </c>
       <c r="AN15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO15" t="s">
         <v>52</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2741,30 +2863,30 @@
         <v>0</v>
       </c>
       <c r="AN16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO16" t="s">
         <v>52</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2866,30 +2988,30 @@
         <v>0</v>
       </c>
       <c r="AN17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO17" t="s">
         <v>52</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2991,30 +3113,30 @@
         <v>0</v>
       </c>
       <c r="AN18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO18" t="s">
         <v>52</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3116,30 +3238,30 @@
         <v>0</v>
       </c>
       <c r="AN19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO19" t="s">
         <v>52</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3241,30 +3363,30 @@
         <v>0</v>
       </c>
       <c r="AN20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO20" t="s">
         <v>52</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3366,30 +3488,30 @@
         <v>0</v>
       </c>
       <c r="AN21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO21" t="s">
         <v>52</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -3485,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="AN22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP22">
         <v>1</v>
@@ -3505,22 +3627,22 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
       </c>
       <c r="D23">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -3616,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -3636,22 +3758,22 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -3747,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="AN24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -3767,22 +3889,22 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>48</v>
@@ -3878,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -3898,22 +4020,22 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -4009,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="AN26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -4029,22 +4151,22 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -4140,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="AN27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -4160,22 +4282,22 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28">
         <v>70</v>
@@ -4271,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="AN28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -4291,22 +4413,22 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -4402,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="AN29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4422,22 +4544,22 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>17</v>
@@ -4533,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -4553,22 +4675,22 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -4664,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="AN31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -4684,22 +4806,22 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -4795,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="AN32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -4815,22 +4937,22 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -4926,10 +5048,10 @@
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -4946,22 +5068,22 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34">
         <v>13</v>
@@ -5057,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="AN34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -5077,22 +5199,22 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -5188,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="AN35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -5208,22 +5330,22 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36">
         <v>9</v>
@@ -5319,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="AN36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -5339,22 +5461,22 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5450,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="AN37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -5470,22 +5592,22 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5581,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="AN38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -5601,22 +5723,22 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
-        <v>93</v>
-      </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5712,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="AN39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -5732,22 +5854,22 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5843,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="AN40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -5863,22 +5985,22 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5974,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="AN41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -5994,22 +6116,22 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
       </c>
       <c r="D42">
         <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -6105,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="AN42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP42">
         <v>1</v>
@@ -6122,22 +6244,22 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
       </c>
       <c r="D43">
         <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>38</v>
@@ -6233,10 +6355,10 @@
         <v>0</v>
       </c>
       <c r="AN43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP43">
         <v>0</v>
@@ -6250,22 +6372,22 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>34</v>
@@ -6361,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="AN44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP44">
         <v>0</v>
@@ -6378,22 +6500,22 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>63</v>
-      </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>65</v>
@@ -6489,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="AN45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -6506,22 +6628,22 @@
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46">
         <v>21</v>
@@ -6617,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="AN46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -6634,22 +6756,22 @@
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <v>11</v>
@@ -6745,10 +6867,10 @@
         <v>0</v>
       </c>
       <c r="AN47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -6762,22 +6884,22 @@
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -6873,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="AN48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -6890,22 +7012,22 @@
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>44</v>
@@ -7001,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="AN49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP49">
         <v>0</v>
@@ -7018,22 +7140,22 @@
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -7129,10 +7251,10 @@
         <v>0</v>
       </c>
       <c r="AN50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP50">
         <v>0</v>
@@ -7146,22 +7268,22 @@
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
       </c>
       <c r="D51">
         <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -7257,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="AN51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP51">
         <v>0</v>
@@ -7274,22 +7396,22 @@
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
         <v>79</v>
       </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52">
         <v>18</v>
@@ -7385,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AN52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP52">
         <v>0</v>
@@ -7402,22 +7524,22 @@
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
         <v>86</v>
       </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53">
         <v>19</v>
@@ -7513,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="AN53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP53">
         <v>0</v>
@@ -7530,22 +7652,22 @@
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="B54" t="s">
-        <v>95</v>
-      </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54">
         <v>24</v>
@@ -7641,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="AN54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP54">
         <v>0</v>
@@ -7658,22 +7780,22 @@
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -7769,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="AN55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP55">
         <v>0</v>
@@ -7786,22 +7908,22 @@
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56">
         <v>11</v>
@@ -7897,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="AN56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP56">
         <v>0</v>
@@ -7914,22 +8036,22 @@
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
         <v>71</v>
       </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -8025,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="AN57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP57">
         <v>0</v>
@@ -8042,22 +8164,22 @@
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
         <v>88</v>
       </c>
-      <c r="B58" t="s">
-        <v>89</v>
-      </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -8153,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="AN58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP58">
         <v>0</v>
@@ -8170,22 +8292,22 @@
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
         <v>101</v>
       </c>
-      <c r="B59" t="s">
-        <v>102</v>
-      </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -8281,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="AN59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP59">
         <v>0</v>
@@ -8298,22 +8420,22 @@
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -8409,10 +8531,10 @@
         <v>0</v>
       </c>
       <c r="AN60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP60">
         <v>0</v>
@@ -8426,22 +8548,22 @@
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
         <v>96</v>
       </c>
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -8537,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="AN61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -8554,22 +8676,22 @@
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G62">
         <v>22</v>
@@ -8668,10 +8790,10 @@
         <v>0</v>
       </c>
       <c r="AN62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP62">
         <v>1</v>
@@ -8688,22 +8810,22 @@
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>17</v>
@@ -8802,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="AN63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP63">
         <v>0</v>
@@ -8822,22 +8944,22 @@
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>42</v>
@@ -8936,10 +9058,10 @@
         <v>0</v>
       </c>
       <c r="AN64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -8956,22 +9078,22 @@
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>39</v>
@@ -9070,10 +9192,10 @@
         <v>0</v>
       </c>
       <c r="AN65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP65">
         <v>0</v>
@@ -9090,22 +9212,22 @@
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66">
         <v>24</v>
@@ -9204,10 +9326,10 @@
         <v>0</v>
       </c>
       <c r="AN66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP66">
         <v>0</v>
@@ -9224,22 +9346,22 @@
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
         <v>64</v>
       </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G67">
         <v>21</v>
@@ -9338,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="AN67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP67">
         <v>0</v>
@@ -9358,22 +9480,22 @@
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68">
         <v>45</v>
@@ -9472,10 +9594,10 @@
         <v>0</v>
       </c>
       <c r="AN68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP68">
         <v>0</v>
@@ -9492,22 +9614,22 @@
     </row>
     <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G69">
         <v>41</v>
@@ -9606,10 +9728,10 @@
         <v>0</v>
       </c>
       <c r="AN69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP69">
         <v>0</v>
@@ -9626,22 +9748,22 @@
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="B70" t="s">
-        <v>95</v>
-      </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G70">
         <v>38</v>
@@ -9740,10 +9862,10 @@
         <v>0</v>
       </c>
       <c r="AN70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP70">
         <v>0</v>
@@ -9760,22 +9882,22 @@
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G71">
         <v>32</v>
@@ -9874,10 +9996,10 @@
         <v>1</v>
       </c>
       <c r="AN71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP71">
         <v>0</v>
@@ -9894,22 +10016,22 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>74</v>
-      </c>
-      <c r="C72" t="s">
-        <v>75</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>19</v>
@@ -10008,10 +10130,10 @@
         <v>1</v>
       </c>
       <c r="AN72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP72">
         <v>0</v>
@@ -10028,22 +10150,22 @@
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73">
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -10142,10 +10264,10 @@
         <v>0</v>
       </c>
       <c r="AN73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP73">
         <v>0</v>
@@ -10162,22 +10284,22 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" t="s">
         <v>58</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>60</v>
       </c>
       <c r="D74">
         <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -10276,10 +10398,10 @@
         <v>0</v>
       </c>
       <c r="AN74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP74">
         <v>0</v>
@@ -10296,22 +10418,22 @@
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -10410,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="AN75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP75">
         <v>0</v>
@@ -10430,22 +10552,22 @@
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
         <v>101</v>
       </c>
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -10544,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="AN76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP76">
         <v>0</v>
@@ -10564,22 +10686,22 @@
     </row>
     <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -10678,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="AN77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP77">
         <v>0</v>
@@ -10698,22 +10820,22 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
         <v>106</v>
       </c>
-      <c r="B78" t="s">
-        <v>107</v>
-      </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -10812,10 +10934,10 @@
         <v>0</v>
       </c>
       <c r="AN78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP78">
         <v>0</v>
@@ -10832,22 +10954,22 @@
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
         <v>98</v>
       </c>
-      <c r="B79" t="s">
-        <v>99</v>
-      </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -10946,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="AN79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP79">
         <v>0</v>
@@ -10966,22 +11088,22 @@
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
         <v>96</v>
       </c>
-      <c r="B80" t="s">
-        <v>97</v>
-      </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80">
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -11080,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="AN80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP80">
         <v>0</v>
@@ -11100,22 +11222,22 @@
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s">
         <v>48</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>49</v>
-      </c>
-      <c r="C81" t="s">
-        <v>50</v>
       </c>
       <c r="D81">
         <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81">
         <v>20</v>
@@ -11214,10 +11336,10 @@
         <v>0</v>
       </c>
       <c r="AN81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP81">
         <v>1</v>
@@ -11231,22 +11353,22 @@
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
         <v>54</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>55</v>
-      </c>
-      <c r="C82" t="s">
-        <v>56</v>
       </c>
       <c r="D82">
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G82">
         <v>36</v>
@@ -11345,10 +11467,10 @@
         <v>0</v>
       </c>
       <c r="AN82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP82">
         <v>0</v>
@@ -11362,22 +11484,22 @@
     </row>
     <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G83">
         <v>47</v>
@@ -11476,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AN83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP83">
         <v>0</v>
@@ -11493,22 +11615,22 @@
     </row>
     <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
         <v>61</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
         <v>62</v>
       </c>
-      <c r="C84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>63</v>
-      </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G84">
         <v>64</v>
@@ -11607,10 +11729,10 @@
         <v>0</v>
       </c>
       <c r="AN84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP84">
         <v>0</v>
@@ -11624,22 +11746,22 @@
     </row>
     <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D85">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G85">
         <v>19</v>
@@ -11738,10 +11860,10 @@
         <v>0</v>
       </c>
       <c r="AN85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP85">
         <v>0</v>
@@ -11755,22 +11877,22 @@
     </row>
     <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
         <v>67</v>
       </c>
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G86">
         <v>46</v>
@@ -11869,10 +11991,10 @@
         <v>0</v>
       </c>
       <c r="AN86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP86">
         <v>0</v>
@@ -11886,22 +12008,22 @@
     </row>
     <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
         <v>76</v>
       </c>
-      <c r="B87" t="s">
-        <v>77</v>
-      </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87">
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G87">
         <v>66</v>
@@ -12000,10 +12122,10 @@
         <v>0</v>
       </c>
       <c r="AN87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP87">
         <v>0</v>
@@ -12017,22 +12139,22 @@
     </row>
     <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G88">
         <v>40</v>
@@ -12131,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="AN88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP88">
         <v>0</v>
@@ -12148,22 +12270,22 @@
     </row>
     <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
         <v>64</v>
       </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89">
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>17</v>
@@ -12262,10 +12384,10 @@
         <v>0</v>
       </c>
       <c r="AN89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP89">
         <v>0</v>
@@ -12279,22 +12401,22 @@
     </row>
     <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
         <v>79</v>
       </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>14</v>
@@ -12393,10 +12515,10 @@
         <v>0</v>
       </c>
       <c r="AN90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP90">
         <v>0</v>
@@ -12410,22 +12532,22 @@
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" t="s">
         <v>73</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>75</v>
       </c>
       <c r="D91">
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G91">
         <v>12</v>
@@ -12524,10 +12646,10 @@
         <v>1</v>
       </c>
       <c r="AN91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP91">
         <v>0</v>
@@ -12541,22 +12663,22 @@
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G92">
         <v>16</v>
@@ -12655,10 +12777,10 @@
         <v>0</v>
       </c>
       <c r="AN92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP92">
         <v>0</v>
@@ -12672,22 +12794,22 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="B93" t="s">
-        <v>85</v>
-      </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -12786,10 +12908,10 @@
         <v>0</v>
       </c>
       <c r="AN93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP93">
         <v>0</v>
@@ -12803,22 +12925,22 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" t="s">
         <v>69</v>
       </c>
-      <c r="B94" t="s">
-        <v>70</v>
-      </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94">
         <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G94">
         <v>7</v>
@@ -12917,10 +13039,10 @@
         <v>0</v>
       </c>
       <c r="AN94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP94">
         <v>0</v>
@@ -12934,22 +13056,22 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D95">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -13048,10 +13170,10 @@
         <v>0</v>
       </c>
       <c r="AN95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP95">
         <v>0</v>
@@ -13065,22 +13187,22 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
         <v>110</v>
       </c>
-      <c r="B96" t="s">
-        <v>111</v>
-      </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G96">
         <v>5</v>
@@ -13179,10 +13301,10 @@
         <v>0</v>
       </c>
       <c r="AN96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP96">
         <v>0</v>
@@ -13196,22 +13318,22 @@
     </row>
     <row r="97" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
         <v>88</v>
       </c>
-      <c r="B97" t="s">
-        <v>89</v>
-      </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -13310,10 +13432,10 @@
         <v>0</v>
       </c>
       <c r="AN97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP97">
         <v>0</v>
@@ -13327,22 +13449,22 @@
     </row>
     <row r="98" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
         <v>106</v>
       </c>
-      <c r="B98" t="s">
-        <v>107</v>
-      </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98">
         <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -13441,10 +13563,10 @@
         <v>0</v>
       </c>
       <c r="AN98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP98">
         <v>0</v>
@@ -13458,22 +13580,22 @@
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
         <v>82</v>
       </c>
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D99">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -13572,10 +13694,10 @@
         <v>0</v>
       </c>
       <c r="AN99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP99">
         <v>0</v>
@@ -13589,22 +13711,22 @@
     </row>
     <row r="100" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
         <v>58</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>59</v>
-      </c>
-      <c r="C100" t="s">
-        <v>60</v>
       </c>
       <c r="D100">
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -13703,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="AN100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP100">
         <v>0</v>
@@ -13719,6 +13841,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AV100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XLSX finales/Resumen_AL_Jugadores.xlsx
+++ b/XLSX finales/Resumen_AL_Jugadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Proyectos\Proyecto Gronestats\GroneStats\XLSX finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140EE444-0762-4B0E-957F-AC758D0E1A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61000F3-F002-4518-9B7A-D1E50D8699D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
